--- a/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\PVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KS\trans\PVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE39D9D-8C5C-4506-8739-69D1A3827F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A92C3B0-7961-4C96-8DA5-297B1EACD920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="335" yWindow="335" windowWidth="12185" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Source:</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>PVTStL Policy Vehicle Types Subject to LCFS</t>
+  </si>
+  <si>
+    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -136,6 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,18 +444,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,52 +469,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -523,17 +533,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -544,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -555,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -577,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -588,18 +598,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KS\trans\PVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A92C3B0-7961-4C96-8DA5-297B1EACD920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{932D9B0F-A7D8-4A41-8225-0D919BB9CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="335" yWindow="335" windowWidth="12185" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="730" windowWidth="9800" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="4">
-        <v>45450</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">

--- a/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/PVTStL/Policy Veh Types Subject to LCFS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\KS\trans\PVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\PVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{932D9B0F-A7D8-4A41-8225-0D919BB9CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B7640-3F18-4F5C-A9FF-A8B089B6F820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="730" windowWidth="9800" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>PVTStL Policy Vehicle Types Subject to LCFS</t>
-  </si>
-  <si>
-    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -130,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -139,7 +136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,24 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,52 +459,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -536,14 +526,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -554,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -565,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -576,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -587,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -598,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -609,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
